--- a/listas/Ciudad-2024-02-22.xlsx
+++ b/listas/Ciudad-2024-02-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\RUVLO 2.0\listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930260B4-4A36-4496-832E-DEE831EA08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6358AE70-7257-4811-AD53-8B234B5BE183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3063,8 +3063,8 @@
   <dimension ref="A1:C989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F801" sqref="F801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
